--- a/2021/day06.xlsx
+++ b/2021/day06.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tchan/workspace/advent_of_code/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0B8B00-5ABD-BF4C-B844-086F48701181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E62ACA-89FE-0741-9DBF-97C125344188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{299730C6-C8D8-804E-9073-268F796EE448}"/>
+    <workbookView xWindow="23360" yWindow="4060" windowWidth="14400" windowHeight="17540" xr2:uid="{299730C6-C8D8-804E-9073-268F796EE448}"/>
   </bookViews>
   <sheets>
     <sheet name="18 days" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -410,7 +418,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -462,6 +470,10 @@
       <c r="B2" s="1">
         <v>8</v>
       </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C9" si="0">D20</f>
+        <v>3</v>
+      </c>
       <c r="D2">
         <f>SUM($E$2:J2)</f>
         <v>0</v>
@@ -484,6 +496,10 @@
       <c r="B3" s="1">
         <v>7</v>
       </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="D3">
         <f>SUM($E$2:J3)</f>
         <v>0</v>
@@ -495,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M6" si="0">VLOOKUP(L3,$B$4:$C$9,2,FALSE)</f>
+        <f t="shared" ref="M3:M6" si="1">VLOOKUP(L3,$B$4:$C$9,2,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -507,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D4">
@@ -521,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -533,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <f>D23</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5">
@@ -547,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -559,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f>D24</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D6">
@@ -573,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -585,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <f>D25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D7">
@@ -604,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <f>D26</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8">
@@ -627,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <f>D27</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D9">
@@ -687,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F27" si="1">E3</f>
+        <f t="shared" ref="F12:F27" si="2">E3</f>
         <v>0</v>
       </c>
     </row>
@@ -706,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -725,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -744,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -763,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -782,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -801,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18">
@@ -824,11 +840,11 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G27" si="2">E3</f>
+        <f t="shared" ref="G19:G27" si="3">E3</f>
         <v>0</v>
       </c>
     </row>
@@ -847,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20">
@@ -874,15 +890,15 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I27" si="3">E3</f>
+        <f t="shared" ref="I21:I27" si="4">E3</f>
         <v>0</v>
       </c>
     </row>
@@ -901,15 +917,15 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -928,15 +944,15 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -955,15 +971,15 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -982,11 +998,11 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25">
@@ -994,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1013,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H27" si="4">E3</f>
+        <f t="shared" ref="H26:H27" si="5">E3</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1044,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27">
